--- a/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
+++ b/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T10:52:26+02:00</t>
+    <t>2023-07-13T11:08:06+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
+++ b/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T11:08:06+02:00</t>
+    <t>2023-07-13T11:12:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
+++ b/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
@@ -42,37 +42,37 @@
     <t>Title</t>
   </si>
   <si>
+    <t>Advance Directives in EHR</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2023-07-13T12:25:01+02:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t xml:space="preserve">The anticipate directives are in the EHR of the patient. This field is present </t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>draft</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2023-07-13T11:12:35+02:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>This field is used to indicate whether a patient has advanced directives</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
+++ b/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T12:25:01+02:00</t>
+    <t>2023-07-17T09:25:48+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
+++ b/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T09:25:48+02:00</t>
+    <t>2023-07-17T09:30:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
+++ b/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T09:30:42+02:00</t>
+    <t>2023-07-17T09:56:27+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
+++ b/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T09:56:27+02:00</t>
+    <t>2023-07-17T16:21:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
+++ b/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T16:21:50+02:00</t>
+    <t>2023-07-17T17:08:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
+++ b/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T17:08:31+02:00</t>
+    <t>2023-07-17T17:22:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
+++ b/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T17:22:35+02:00</t>
+    <t>2023-07-18T09:29:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
+++ b/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-18T09:29:43+02:00</t>
+    <t>2023-07-18T12:13:58+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
+++ b/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-18T12:13:58+02:00</t>
+    <t>2023-07-18T13:14:18+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
+++ b/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-18T13:14:18+02:00</t>
+    <t>2023-07-18T13:20:53+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
+++ b/temp/pages/StructureDefinition-anticipate-directives-epr.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-18T13:20:53+02:00</t>
+    <t>2023-07-18T14:12:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
